--- a/biology/Histoire de la zoologie et de la botanique/Francesco_Redi/Francesco_Redi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francesco_Redi/Francesco_Redi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Redi (né le 18 ou le 19 février 1626 à Arezzo, en Toscane, et mort le 1er mars 1697 (à 71 ans) à Pise) était un biologiste, lexicographe et écrivain italien du XVIIe siècle. Il exerçait la profession de médecin. Redi est principalement connu pour ses travaux sur les insectes et les parasites.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Redi est fils de médecin. Il fait ses études à l'école jésuite de Florence puis à l'université de Pise, où il obtient le titre de docteur en médecine.
 En 1666 il devient l'archiatre du grand-duc Ferdinand II de Médicis (1610–1670) ; il sera aussi celui de son fils et successeur Cosme III.
-Il se fait d'abord connaître par son travail sur les vipères. Il devient membre de l'Accademia della Crusca (1655) et participe aux réunions de l'Accademia del Cimento[1].
+Il se fait d'abord connaître par son travail sur les vipères. Il devient membre de l'Accademia della Crusca (1655) et participe aux réunions de l'Accademia del Cimento.
 Redi est aussi un poète ; son œuvre la plus célèbre est Bacchus en Toscane. Il devient membre de l'Accademia dell'Arcadia récemment fondée ; son nom d'académicien est Anicio Traustio.
 </t>
         </is>
@@ -547,23 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Science
-Le venin des vipères
-Redi étudie les vipères et les effets de leur morsure. Il démontre que le venin est un fluide jaunâtre qui s'écoule des dents et qu'il est stocké dans la tête de l'animal. Il prouve également que seul le venin injecté dans le corps lors d'une morsure peut entraîner la mort ; le venin ingéré est sans nocivité. Après avoir réalisé de nombreuses expériences devant le grand-duc lui-même, il fait paraître en 1664, Osservazioni intorno alle vipere. Ses observations sont contestées, notamment par Moyse Charas, pharmacien au Jardin du roi à Paris[2]. Redi mène alors de nombreuses autres expériences afin de confirmer ses observations. Les travaux de Felice Fontana, établiront, en 1767 et 1781, l'exactitude de ceux de Redi.
-La génération spontanée
-Il étudie particulièrement les insectes. Il fait paraître en 1668, Esperienze intorno alla generazione degl'insetti, où il démontre que, contrairement à une croyance de l'époque, l'apparition des vers dans les cadavres n'est pas un phénomène de génération spontanée, mais que (comme le pensait déjà Homère[3]) les vers naissent d'œufs pondus par des mouches.
-La parasitologie
-Francesco Redi est un fondateur de la parasitologie expérimentale[4]. Dans ses Observations sur les animaux vivants qui se trouvent dans les animaux vivants, il décrit 108 espèces de parasites[5].
-Il observe des œufs d'ascaris, réfutant aussi la croyance en leur génération spontanée. Il a aussi joué un grand rôle dans la découverte en 1687 du sarcopte de la gale par ses disciples Giovanni Cosimo Bonomo et Giacinto Cestoni — leur découverte se présente sous la forme d'une lettre à Redi.
-En 1837, le zoologiste italien Filippo De Filippi (1814-1867) donne le nom de « rédie » à une forme larvaire de la grande douve en hommage à Francesco Redi[6].
-Lettres
-Langue italienne
-Membre de l'Accademia della Crusca, Redi est l'un des compilateurs de son Vocabulario (it)[7], premier dictionnaire de la langue italienne, et y ajoute un lexique arétin[8] ; il poursuivra toute sa vie ce travail de lexicographe. C'est en tant que lexicographe que Redi est l'auteur de centaines de canulars, attestations fictives de mots dont il disait pouvoir prouver l'existence par des manuscrits en sa possession.
-Il est nommé en 1658 membre de la commission chargée de préparer une nouvelle édition du dictionnaire[1]. Il est l'un des correspondants de Gilles Ménage[9],[10].
-Poésie
-Redi a écrit des dithyrambes, Bacco in Toscana, Arianna inferma, et une soixantaine de sonnets[11].
-Prose
-Rédi est l'auteur d'une Lettera[12], une histoire falsifiée de l'invention des lunettes qu'il attribue à Allessandro della Spina (mort en 1313), moine de Pise. En altérant délibérément la transcription de manuscrits, Rédi aurait voulu créer un parallèle édifiant entre Spina (lunettes) et Galilée (télescope) : tous deux auraient été capables de fabriquer eux-mêmes, grâce au seul fait de l'avoir vu ou d'en avoir entendu parler, un instrument protégé par secret de fabrication[13].
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Le venin des vipères</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Redi étudie les vipères et les effets de leur morsure. Il démontre que le venin est un fluide jaunâtre qui s'écoule des dents et qu'il est stocké dans la tête de l'animal. Il prouve également que seul le venin injecté dans le corps lors d'une morsure peut entraîner la mort ; le venin ingéré est sans nocivité. Après avoir réalisé de nombreuses expériences devant le grand-duc lui-même, il fait paraître en 1664, Osservazioni intorno alle vipere. Ses observations sont contestées, notamment par Moyse Charas, pharmacien au Jardin du roi à Paris. Redi mène alors de nombreuses autres expériences afin de confirmer ses observations. Les travaux de Felice Fontana, établiront, en 1767 et 1781, l'exactitude de ceux de Redi.
 </t>
         </is>
       </c>
@@ -589,14 +597,259 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>La génération spontanée</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie particulièrement les insectes. Il fait paraître en 1668, Esperienze intorno alla generazione degl'insetti, où il démontre que, contrairement à une croyance de l'époque, l'apparition des vers dans les cadavres n'est pas un phénomène de génération spontanée, mais que (comme le pensait déjà Homère) les vers naissent d'œufs pondus par des mouches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La parasitologie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesco Redi est un fondateur de la parasitologie expérimentale. Dans ses Observations sur les animaux vivants qui se trouvent dans les animaux vivants, il décrit 108 espèces de parasites.
+Il observe des œufs d'ascaris, réfutant aussi la croyance en leur génération spontanée. Il a aussi joué un grand rôle dans la découverte en 1687 du sarcopte de la gale par ses disciples Giovanni Cosimo Bonomo et Giacinto Cestoni — leur découverte se présente sous la forme d'une lettre à Redi.
+En 1837, le zoologiste italien Filippo De Filippi (1814-1867) donne le nom de « rédie » à une forme larvaire de la grande douve en hommage à Francesco Redi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lettres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Langue italienne</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de l'Accademia della Crusca, Redi est l'un des compilateurs de son Vocabulario (it), premier dictionnaire de la langue italienne, et y ajoute un lexique arétin ; il poursuivra toute sa vie ce travail de lexicographe. C'est en tant que lexicographe que Redi est l'auteur de centaines de canulars, attestations fictives de mots dont il disait pouvoir prouver l'existence par des manuscrits en sa possession.
+Il est nommé en 1658 membre de la commission chargée de préparer une nouvelle édition du dictionnaire. Il est l'un des correspondants de Gilles Ménage,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lettres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Redi a écrit des dithyrambes, Bacco in Toscana, Arianna inferma, et une soixantaine de sonnets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Contributions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lettres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rédi est l'auteur d'une Lettera, une histoire falsifiée de l'invention des lunettes qu'il attribue à Allessandro della Spina (mort en 1313), moine de Pise. En altérant délibérément la transcription de manuscrits, Rédi aurait voulu créer un parallèle édifiant entre Spina (lunettes) et Galilée (télescope) : tous deux auraient été capables de fabriquer eux-mêmes, grâce au seul fait de l'avoir vu ou d'en avoir entendu parler, un instrument protégé par secret de fabrication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les œuvres de Redi sont en italien.
-Science
-Osservazioni intorno alle vipere, 1664 (Observations sur les vipères)
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œuvres de Redi sont en italien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Osservazioni intorno alle vipere, 1664 (Observations sur les vipères)
 Texte Wikisource
 Numérisation Gallica
 Esperienze intorno alla generazione degl'insetti, Florence, All'Insegna della Stella, 1668 (Expériences sur la génération des insectes). Dédié à Carlo Roberto Dati.
@@ -604,22 +857,124 @@
 Texte Wikisource
 Walter Bernardi (dir.), Esperienze intorno alla generazione degli insetti, coll. « Biblioteca della scienza italiana », Florence, Giunti, 1996
 Sopra alcune opposizioni fatte alle sue osservazioni intorno alle vipere, 1670 — Wikisource
-Osservazioni di Francesco Redi intorno agli animali viventi che si trovano negli animali viventi, 1684 — Numérisation Gallica
-Lettres
-Bacco in Toscana (Bacchus en Toscane), Florence, 1685
+Osservazioni di Francesco Redi intorno agli animali viventi che si trovano negli animali viventi, 1684 — Numérisation Gallica</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lettres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bacco in Toscana (Bacchus en Toscane), Florence, 1685
 Texte dans Wikisource
 Numérisation Google
 Bacco in Toscana : con una scelta delle "Annotazioni", édition de Gabriele Bucchi, Roma, Antenore, 2005
 Ditirambi, Brescia, Pasini, 1826
 Lettera intorno all'invenzione degli occhiali, 1690 — WikisourceHistoire — fictive — de l'invention des lunettes
 « Seizième dissertation, contenue dans une lettre écrite à Monsieur Paul Falconieri par Monsieur François Redi médecin de Florence, sur le sujet du temps auquel les lunettes furent inventées », dans Jacob Spon, Recherches curieuses d'antiquité, Lyon, Thomas Amaulry, 1683, p. 213
-Poesie, Naples, Michele Stasi, 1789
-Œuvres complètes
-Opere
+Poesie, Naples, Michele Stasi, 1789</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Œuvres complètes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Opere
 Numérisation Google livres : t. 1 ; t. 2 ; t. 3 ; t. 4, Naples, 1741 ; t. 5, Naples, 1778
-Numérisation e-rara.ch : Opere, Venise, 1742
-Correspondance
-Scelta di lettere familiari, Venise, 1846</t>
+Numérisation e-rara.ch : Opere, Venise, 1742</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Redi</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Correspondance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Scelta di lettere familiari, Venise, 1846</t>
         </is>
       </c>
     </row>
